--- a/biology/Médecine/Syndrome_de_Borjeson-Forssman-Lehmann/Syndrome_de_Borjeson-Forssman-Lehmann.xlsx
+++ b/biology/Médecine/Syndrome_de_Borjeson-Forssman-Lehmann/Syndrome_de_Borjeson-Forssman-Lehmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Borjeson-Forssman-Lehmann est un retard mental lié au chromosome X avec épilepsie, obésité, hypogonadisme et des oreilles épaisses et longues, au lobe charnu, mais normalement conformées. Cette anomalie est exclusivement masculine et présente d'ailleurs des symptômes affectant le phénotype sexuel.
 </t>
@@ -511,7 +523,9 @@
           <t>Autres noms de la maladie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Retard mental-épilepsie-anomalies endocrines
 Syndrome de Borjeson</t>
@@ -542,7 +556,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Mutation du gène PHF6 situé sur le locus q26.3 du chromosome X codant la protéine en doigt 6.
 </t>
@@ -573,7 +589,9 @@
           <t>Incidence et prévalence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Inconnu
 </t>
@@ -604,7 +622,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le nouveau-né, hypotonique, présente déjà de grandes oreilles, un micropénis et une obésité.
 La croissance est retardée, une microcéphalie est possible. Durant la croissance les caractéristiques deviennent plus évident avec de grandes oreilles, des yeux enfoncés, des paupières proéminentes.
@@ -641,6 +661,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -666,7 +688,9 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Syndrome de Bardet-Biedl
 Syndrome de Coffin-Lowry
@@ -699,6 +723,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -724,41 +750,12 @@
           <t>Mode transmission</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Récessive liée à l’X.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Syndrome_de_Borjeson-Forssman-Lehmann</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Borjeson-Forssman-Lehmann</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Conseil génétique</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Famille d’un patient
-Dépistage prénatal</t>
         </is>
       </c>
     </row>
